--- a/AlgoTrade.xlsx
+++ b/AlgoTrade.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Live_Trading" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
   <si>
     <t>name</t>
   </si>
@@ -66,12 +66,6 @@
     <t>TCS</t>
   </si>
   <si>
-    <t>BUY</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>sl_orderid</t>
   </si>
   <si>
@@ -88,9 +82,6 @@
   </si>
   <si>
     <t>NESTLEIND</t>
-  </si>
-  <si>
-    <t>entry_orderid</t>
   </si>
   <si>
     <t>BEL</t>
@@ -484,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,497 +515,134 @@
         <v>6</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="O1" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P1" s="4"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="1">
-        <v>45956</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.75775462962962958</v>
-      </c>
-      <c r="E2">
-        <v>422.5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>421.7</v>
-      </c>
-      <c r="M2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2">
-        <v>423.3</v>
-      </c>
-      <c r="O2">
-        <v>1234</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="1">
-        <v>45956</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.7578125</v>
-      </c>
-      <c r="E3">
-        <v>38600</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>38522.800000000003</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="M3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3">
-        <v>38677.199999999997</v>
-      </c>
-      <c r="O3">
-        <v>1234</v>
-      </c>
+      <c r="M3" s="3"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="1">
-        <v>45956</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.75785879629629627</v>
-      </c>
-      <c r="E4">
-        <v>2240.1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>2235.6</v>
-      </c>
-      <c r="M4" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4">
-        <v>2244.6</v>
-      </c>
-      <c r="O4">
-        <v>1234</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1">
-        <v>45956</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.75789351851851849</v>
-      </c>
-      <c r="E5">
-        <v>1523.9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1520.9</v>
-      </c>
-      <c r="M5" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5">
-        <v>1526.9</v>
-      </c>
-      <c r="O5">
-        <v>1234</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="1">
-        <v>45956</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.75793981481481476</v>
-      </c>
-      <c r="E6">
-        <v>995.05</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>993.1</v>
-      </c>
-      <c r="M6" t="s">
-        <v>14</v>
-      </c>
-      <c r="N6">
-        <v>997</v>
-      </c>
-      <c r="O6">
-        <v>1234</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="1">
-        <v>45956</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.75800925925925933</v>
-      </c>
-      <c r="E8">
-        <v>4815.7</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>4806.1000000000004</v>
-      </c>
-      <c r="M8" t="s">
-        <v>14</v>
-      </c>
-      <c r="N8">
-        <v>4825.3</v>
-      </c>
-      <c r="O8">
-        <v>1234</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="1">
-        <v>45956</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.75805555555555548</v>
-      </c>
-      <c r="E9">
-        <v>417.2</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>416.4</v>
-      </c>
-      <c r="M9" t="s">
-        <v>14</v>
-      </c>
-      <c r="N9">
-        <v>418</v>
-      </c>
-      <c r="O9">
-        <v>1234</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="1">
-        <v>45956</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.75812500000000005</v>
-      </c>
-      <c r="E11">
-        <v>1525.5</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1522.4</v>
-      </c>
-      <c r="M11" t="s">
-        <v>14</v>
-      </c>
-      <c r="N11">
-        <v>1528.6</v>
-      </c>
-      <c r="O11">
-        <v>1234</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="1">
-        <v>45956</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.75815972222222217</v>
-      </c>
-      <c r="E12">
-        <v>5544.5</v>
-      </c>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>5533.4</v>
-      </c>
-      <c r="M12" t="s">
-        <v>14</v>
-      </c>
-      <c r="N12">
-        <v>5555.6</v>
-      </c>
-      <c r="O12">
-        <v>1234</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="1">
-        <v>45956</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.75820601851851854</v>
-      </c>
-      <c r="E13">
-        <v>725.6</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>724.1</v>
-      </c>
-      <c r="M13" t="s">
-        <v>14</v>
-      </c>
-      <c r="N13">
-        <v>727.1</v>
-      </c>
-      <c r="O13">
-        <v>1234</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="1">
-        <v>45956</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.75824074074074066</v>
-      </c>
-      <c r="E14">
-        <v>16272</v>
-      </c>
-      <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>16239.5</v>
-      </c>
-      <c r="M14" t="s">
-        <v>14</v>
-      </c>
-      <c r="N14">
-        <v>16304.5</v>
-      </c>
-      <c r="O14">
-        <v>1234</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="1">
-        <v>45956</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.75829861111111108</v>
-      </c>
-      <c r="E15">
-        <v>1282.5</v>
-      </c>
-      <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>1279.9000000000001</v>
-      </c>
-      <c r="M15" t="s">
-        <v>14</v>
-      </c>
-      <c r="N15">
-        <v>1285.0999999999999</v>
-      </c>
-      <c r="O15">
-        <v>1234</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="1">
-        <v>45956</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.75834490740740745</v>
-      </c>
-      <c r="E16">
-        <v>1507</v>
-      </c>
-      <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>1504</v>
-      </c>
-      <c r="M16" t="s">
-        <v>14</v>
-      </c>
-      <c r="N16">
-        <v>1510</v>
-      </c>
-      <c r="O16">
-        <v>1234</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -1026,73 +654,17 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="1">
-        <v>45956</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.75842592592592595</v>
-      </c>
-      <c r="E18">
-        <v>1453.7</v>
-      </c>
-      <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>1450.8</v>
-      </c>
-      <c r="M18" t="s">
-        <v>14</v>
-      </c>
-      <c r="N18">
-        <v>1456.6</v>
-      </c>
-      <c r="O18">
-        <v>1234</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="1">
-        <v>45956</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0.75848379629629636</v>
-      </c>
-      <c r="E19">
-        <v>243.09</v>
-      </c>
-      <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>242.6</v>
-      </c>
-      <c r="M19" t="s">
-        <v>14</v>
-      </c>
-      <c r="N19">
-        <v>243.6</v>
-      </c>
-      <c r="O19">
-        <v>1234</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C20" s="1"/>
@@ -1149,10 +721,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P11"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1160,7 +732,7 @@
     <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1183,79 +755,128 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
-        <v>21</v>
-      </c>
       <c r="O1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
       <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
       <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="2"/>
       <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="2"/>
       <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
       <c r="C6" s="1"/>
       <c r="D6" s="2"/>
       <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
       <c r="C7" s="1"/>
       <c r="D7" s="2"/>
       <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
       <c r="D8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
       <c r="D9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
       <c r="D10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
       <c r="D11" s="2"/>
       <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C12" s="1"/>
+      <c r="D12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C13" s="1"/>
+      <c r="D13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C14" s="1"/>
+      <c r="D14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C15" s="1"/>
+      <c r="D15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C16" s="1"/>
+      <c r="D16" s="2"/>
+      <c r="I16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
